--- a/analysis/Table4-Age-Prevalence.xlsx
+++ b/analysis/Table4-Age-Prevalence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kitty\Documents\Undergrad\COOP\CANHEART\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9FF986-5FD5-4816-92E3-6D20FEC06111}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54444483-6727-4C96-B70F-8E39F82009D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4650" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="25">
   <si>
     <t>Hypertension</t>
   </si>
@@ -90,12 +90,38 @@
   <si>
     <t>Risk factor; sex; age</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Prevalence of risk factors, by age categories, from 2000 to 2018.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data source: CCHS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -121,6 +147,14 @@
     <font>
       <i/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -255,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -270,11 +304,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -294,13 +331,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -599,43 +636,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M136"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:XFD138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
     <col min="2" max="12" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2">
         <v>2001</v>
       </c>
@@ -663,66 +705,66 @@
       <c r="J3" s="2">
         <v>2017</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="B4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="3">
@@ -760,7 +802,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3">
@@ -798,7 +840,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3">
@@ -836,7 +878,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3">
@@ -874,7 +916,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3">
@@ -912,45 +954,45 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="B11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="3">
@@ -988,7 +1030,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3">
@@ -1026,7 +1068,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="3">
@@ -1064,7 +1106,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="3">
@@ -1102,7 +1144,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="3">
@@ -1140,45 +1182,45 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="B17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="3">
@@ -1216,7 +1258,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3">
@@ -1254,7 +1296,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="3">
@@ -1292,7 +1334,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="3">
@@ -1330,7 +1372,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="4">
@@ -1368,61 +1410,61 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="B23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="3">
@@ -1460,7 +1502,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="3">
@@ -1498,7 +1540,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3">
@@ -1536,7 +1578,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="3">
@@ -1574,7 +1616,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="3">
@@ -1612,45 +1654,45 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="6" t="s">
+      <c r="B30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="3">
@@ -1688,7 +1730,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="3">
@@ -1726,7 +1768,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="3">
@@ -1764,7 +1806,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="3">
@@ -1802,7 +1844,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="3">
@@ -1840,45 +1882,45 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="6" t="s">
+      <c r="B36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="3">
@@ -1916,7 +1958,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="3">
@@ -1954,7 +1996,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="3">
@@ -1992,7 +2034,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="3">
@@ -2030,7 +2072,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="4">
@@ -2068,61 +2110,61 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="7" t="s">
+      <c r="B42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="3">
@@ -2160,7 +2202,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="3">
@@ -2198,7 +2240,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="3">
@@ -2236,7 +2278,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="3">
@@ -2274,7 +2316,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="3">
@@ -2312,45 +2354,45 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="6" t="s">
+      <c r="B49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B50" s="3">
@@ -2388,7 +2430,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="3">
@@ -2426,7 +2468,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="3">
@@ -2464,7 +2506,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="3">
@@ -2502,7 +2544,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="3">
@@ -2540,45 +2582,45 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55" s="6" t="s">
+      <c r="B55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B56" s="3">
@@ -2616,7 +2658,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="3">
@@ -2654,7 +2696,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="3">
@@ -2692,7 +2734,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="3">
@@ -2730,7 +2772,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="4">
@@ -2768,61 +2810,61 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L61" s="7" t="s">
+      <c r="B61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="3">
@@ -2860,7 +2902,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="3">
@@ -2898,7 +2940,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="3">
@@ -2936,7 +2978,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="3">
@@ -2974,7 +3016,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="3">
@@ -3012,45 +3054,45 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L68" s="6" t="s">
+      <c r="B68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L68" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B69" s="3">
@@ -3088,7 +3130,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B70" s="3">
@@ -3126,7 +3168,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="3">
@@ -3164,7 +3206,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B72" s="3">
@@ -3202,7 +3244,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="3">
@@ -3240,45 +3282,45 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L74" s="6" t="s">
+      <c r="B74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B75" s="3">
@@ -3316,7 +3358,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="3">
@@ -3354,7 +3396,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="3">
@@ -3392,7 +3434,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B78" s="3">
@@ -3430,7 +3472,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="4">
@@ -3468,61 +3510,61 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L80" s="7" t="s">
+      <c r="B80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B82" s="3">
@@ -3560,7 +3602,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="3">
@@ -3598,7 +3640,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B84" s="3">
@@ -3636,7 +3678,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B85" s="3">
@@ -3674,7 +3716,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="3">
@@ -3712,45 +3754,45 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L87" s="6" t="s">
+      <c r="B87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L87" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B88" s="3">
@@ -3788,7 +3830,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="3">
@@ -3826,7 +3868,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B90" s="3">
@@ -3864,7 +3906,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B91" s="3">
@@ -3902,7 +3944,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="3">
@@ -3940,45 +3982,45 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L93" s="6" t="s">
+      <c r="B93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L93" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="3">
@@ -4016,7 +4058,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B95" s="3">
@@ -4054,7 +4096,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B96" s="3">
@@ -4092,7 +4134,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B97" s="3">
@@ -4130,7 +4172,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B98" s="4">
@@ -4168,61 +4210,61 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L99" s="7" t="s">
+      <c r="B99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
     </row>
     <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B101" s="3">
@@ -4260,7 +4302,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B102" s="3">
@@ -4298,7 +4340,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="3">
@@ -4336,7 +4378,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B104" s="3">
@@ -4374,7 +4416,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="3">
@@ -4412,45 +4454,45 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L106" s="6" t="s">
+      <c r="B106" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L106" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B107" s="3">
@@ -4488,7 +4530,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B108" s="3">
@@ -4526,7 +4568,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B109" s="3">
@@ -4564,7 +4606,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B110" s="3">
@@ -4602,7 +4644,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="3">
@@ -4640,45 +4682,45 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L112" s="6" t="s">
+      <c r="B112" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L112" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B113" s="3">
@@ -4716,7 +4758,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B114" s="3">
@@ -4754,7 +4796,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B115" s="3">
@@ -4792,7 +4834,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B116" s="3">
@@ -4830,7 +4872,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B117" s="4">
@@ -4868,61 +4910,61 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L118" s="7" t="s">
+      <c r="B118" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
     </row>
     <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -4960,7 +5002,7 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -4998,7 +5040,7 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -5036,7 +5078,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -5074,7 +5116,7 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -5112,45 +5154,45 @@
       </c>
     </row>
     <row r="125" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I125" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J125" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K125" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L125" s="6" t="s">
+      <c r="B125" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K125" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L125" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -5188,7 +5230,7 @@
       </c>
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -5226,7 +5268,7 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -5264,7 +5306,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -5302,7 +5344,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -5340,45 +5382,45 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J131" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K131" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L131" s="6" t="s">
+      <c r="B131" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L131" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -5416,7 +5458,7 @@
       </c>
     </row>
     <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -5454,7 +5496,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -5492,7 +5534,7 @@
       </c>
     </row>
     <row r="135" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -5530,7 +5572,7 @@
       </c>
     </row>
     <row r="136" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -5567,21 +5609,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="138" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A131:L131"/>
+    <mergeCell ref="A100:L100"/>
+    <mergeCell ref="A106:L106"/>
+    <mergeCell ref="A112:L112"/>
+    <mergeCell ref="A118:L118"/>
+    <mergeCell ref="A119:L119"/>
+    <mergeCell ref="A125:L125"/>
     <mergeCell ref="A99:L99"/>
     <mergeCell ref="A43:L43"/>
     <mergeCell ref="A49:L49"/>
@@ -5594,13 +5635,19 @@
     <mergeCell ref="A81:L81"/>
     <mergeCell ref="A87:L87"/>
     <mergeCell ref="A93:L93"/>
-    <mergeCell ref="A131:L131"/>
-    <mergeCell ref="A100:L100"/>
-    <mergeCell ref="A106:L106"/>
-    <mergeCell ref="A112:L112"/>
-    <mergeCell ref="A118:L118"/>
-    <mergeCell ref="A119:L119"/>
-    <mergeCell ref="A125:L125"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
